--- a/All_About_MLAlgos.xlsx
+++ b/All_About_MLAlgos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshn\Documents\App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshn\Documents\ML_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DCC602-A753-477A-841B-1E334295C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55448CB3-79B4-4EDB-953E-D540835AE2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{EFB71CBB-1F15-4ADD-9B42-4722882A8709}"/>
   </bookViews>
@@ -5885,12 +5885,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5898,6 +5892,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6236,7 +6236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DD60FA-B8DB-4151-A2A9-1757C5F6B869}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -6415,7 +6415,7 @@
       <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -6459,7 +6459,7 @@
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -6503,7 +6503,7 @@
       <c r="H6" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -7119,7 +7119,7 @@
       <c r="H20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -7139,11 +7139,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.5">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="29">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>487</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="29">
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="58">
+    <row r="31" spans="1:14" ht="29">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="58">
+    <row r="32" spans="1:14" ht="29">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="58">
+    <row r="34" spans="1:2" ht="29">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="43.5">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="43.5">
+    <row r="36" spans="1:2" ht="29">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="43.5">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="43.5">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="43.5">
+    <row r="39" spans="1:2" ht="29">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="43.5">
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.5">
+    <row r="41" spans="1:2" ht="29">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="58">
+    <row r="42" spans="1:2" ht="29">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.5">
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -7273,18 +7273,18 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="41.26953125" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="42.6328125" customWidth="1"/>
     <col min="4" max="4" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="87">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="87">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>513</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="87">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>351</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="101.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="101.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>523</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="87">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>527</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="87">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="101.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72.5">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>540</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72.5">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>544</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="72.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>387</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="87">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>551</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="87">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="72.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>558</v>
       </c>
@@ -7546,7 +7546,7 @@
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72.5">
+    <row r="2" spans="1:9" ht="29">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="58">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="58">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>340</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.5">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>351</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72.5">
+    <row r="7" spans="1:9" ht="29">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="87">
+    <row r="8" spans="1:9" ht="29">
       <c r="A8" s="3" t="s">
         <v>359</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="87">
+    <row r="9" spans="1:9" ht="29">
       <c r="A9" s="3" t="s">
         <v>363</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="72.5">
+    <row r="10" spans="1:9" ht="29">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="58">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="72.5">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>371</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.5">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>375</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="72.5">
+    <row r="14" spans="1:9" ht="29">
       <c r="A14" s="3" t="s">
         <v>378</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="58">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>383</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="58">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>387</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="58">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>391</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72.5">
+    <row r="18" spans="1:9" ht="29">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="72.5">
+    <row r="19" spans="1:9" ht="29">
       <c r="A19" s="3" t="s">
         <v>399</v>
       </c>
@@ -8121,7 +8121,7 @@
     <col min="7" max="7" width="41.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>402</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>408</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="101.5">
+    <row r="3" spans="1:7" ht="29">
       <c r="A3" s="3" t="s">
         <v>414</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="87">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>420</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>425</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="87">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>430</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="87">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>435</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="87">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>439</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="87">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>444</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>450</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>455</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="58">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>461</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="72.5">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>466</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="72.5">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>471</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72.5">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>476</v>
       </c>
@@ -8467,39 +8467,39 @@
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75E7B10-0544-40D0-B481-B6899074A0B8}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -8539,10 +8539,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="29">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -8553,8 +8553,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="29">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>205</v>
       </c>
@@ -8563,10 +8563,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -8577,8 +8577,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="29">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>210</v>
       </c>
@@ -8587,7 +8587,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="29">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8601,7 +8601,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="29">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>214</v>
       </c>
@@ -8613,7 +8613,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="29">
-      <c r="A8" s="4"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>215</v>
       </c>
@@ -8621,7 +8621,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="29">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8635,7 +8635,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="29">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>221</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="29">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>222</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="29">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8669,7 +8669,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="29">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>228</v>
       </c>
@@ -8681,7 +8681,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="29">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>229</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="29">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8705,7 +8705,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>237</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="29">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>238</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="29">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -8739,7 +8739,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="29">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>244</v>
       </c>
@@ -8751,7 +8751,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="29">
-      <c r="A20" s="4"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>245</v>
       </c>
@@ -8759,29 +8759,29 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="29">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8790,52 +8790,52 @@
       <c r="C23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="29">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="29">
-      <c r="A26" s="4" t="s">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="43.5">
+      <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="29">
-      <c r="A27" s="4"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="29">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8844,22 +8844,22 @@
       <c r="C28" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="29">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="29">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -8873,7 +8873,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="29">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>270</v>
       </c>
@@ -8885,7 +8885,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="29">
-      <c r="A32" s="4"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
         <v>271</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="29">
-      <c r="A33" s="4"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
         <v>272</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="29">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -8917,7 +8917,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="29">
-      <c r="A35" s="4"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>279</v>
       </c>
@@ -8929,7 +8929,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
         <v>280</v>
       </c>
@@ -8937,7 +8937,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="29">
-      <c r="A37" s="4"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
         <v>281</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="29">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -8959,7 +8959,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="29">
-      <c r="A39" s="4"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>287</v>
       </c>
@@ -8971,7 +8971,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="29">
-      <c r="A40" s="4"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
         <v>288</v>
       </c>
@@ -8979,7 +8979,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="29">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -8988,30 +8988,30 @@
       <c r="C41" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="29">
-      <c r="A42" s="4"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="29">
-      <c r="A43" s="4"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="29">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -9025,7 +9025,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="29">
-      <c r="A45" s="4"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
         <v>299</v>
       </c>
@@ -9037,7 +9037,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="29">
-      <c r="A46" s="4"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
         <v>271</v>
       </c>
@@ -9045,7 +9045,7 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" ht="29">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -9059,7 +9059,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="29">
-      <c r="A48" s="4"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="2" t="s">
         <v>305</v>
       </c>
@@ -9071,7 +9071,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="29">
-      <c r="A49" s="4"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="2" t="s">
         <v>306</v>
       </c>
@@ -9079,7 +9079,7 @@
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" ht="29">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -9088,22 +9088,22 @@
       <c r="C50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="29">
-      <c r="A51" s="4"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
         <v>312</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="29">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -9117,7 +9117,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="29">
-      <c r="A53" s="4"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="2" t="s">
         <v>317</v>
       </c>
@@ -9129,7 +9129,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="29">
-      <c r="A54" s="4"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
         <v>318</v>
       </c>
@@ -9138,12 +9138,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="A12:A14"/>
@@ -9157,16 +9161,12 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9176,7 +9176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A045E-31EC-4799-9CCA-3D2D803CE2FF}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>

--- a/All_About_MLAlgos.xlsx
+++ b/All_About_MLAlgos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshn\Documents\ML_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55448CB3-79B4-4EDB-953E-D540835AE2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E519F81B-38C5-4744-A13F-7761B9CBF8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{EFB71CBB-1F15-4ADD-9B42-4722882A8709}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFB71CBB-1F15-4ADD-9B42-4722882A8709}"/>
   </bookViews>
   <sheets>
     <sheet name="ML Algorithms" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="563">
   <si>
     <t>Algorithm</t>
   </si>
@@ -5804,6 +5804,9 @@
   </si>
   <si>
     <t>Unstable training, difficult to evaluate</t>
+  </si>
+  <si>
+    <t>bjasjhajdpo</t>
   </si>
 </sst>
 </file>
@@ -6234,10 +6237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DD60FA-B8DB-4151-A2A9-1757C5F6B869}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6918,7 +6921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29">
+    <row r="16" spans="1:14" ht="43.5">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -7261,6 +7264,11 @@
       </c>
       <c r="B43" s="2" t="s">
         <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -7531,7 +7539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D459BB-2469-416F-8B03-12C719DC7A57}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -9138,16 +9146,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="A12:A14"/>
@@ -9161,12 +9165,16 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
